--- a/Infrastructure Consultancy Tool.xlsx
+++ b/Infrastructure Consultancy Tool.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Stoneseed\New Products\Cloud Assessment Framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DavidGilmore\OneDrive - Stoneseed\MBA\Dissertation\Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="146" documentId="11_35157A8656BCBECAE5A2CC7F10DEF8026709403F" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{ABBB64CF-167F-49B1-85B0-CE37C49BA674}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" tabRatio="865" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="878" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome" sheetId="8" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="1" r:id="rId2"/>
     <sheet name="Business Overview" sheetId="7" r:id="rId3"/>
-    <sheet name="IT Strategic Drivers" sheetId="2" r:id="rId4"/>
+    <sheet name="Strategic Drivers" sheetId="2" r:id="rId4"/>
     <sheet name="Strategic Obstacles" sheetId="3" r:id="rId5"/>
     <sheet name="Networking" sheetId="9" r:id="rId6"/>
     <sheet name="Compute" sheetId="5" r:id="rId7"/>
@@ -23,7 +24,7 @@
     <sheet name="Core Applications" sheetId="10" r:id="rId9"/>
     <sheet name="Voice" sheetId="13" r:id="rId10"/>
     <sheet name="Security" sheetId="12" r:id="rId11"/>
-    <sheet name="IT Service" sheetId="6" r:id="rId12"/>
+    <sheet name="IT Service &amp; Support" sheetId="6" r:id="rId12"/>
     <sheet name="Lists" sheetId="14" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="359">
   <si>
     <t>Security</t>
   </si>
@@ -92,15 +93,9 @@
     <t>Risk Management</t>
   </si>
   <si>
-    <t>Sector</t>
-  </si>
-  <si>
     <t>Organisation Name</t>
   </si>
   <si>
-    <t>Business Summary</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -254,9 +249,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Technical Advisor</t>
-  </si>
-  <si>
     <t>Reduce IT Costs</t>
   </si>
   <si>
@@ -908,18 +900,9 @@
     <t>01111 111 111</t>
   </si>
   <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>01/01/2015</t>
-  </si>
-  <si>
     <t>John Smith</t>
   </si>
   <si>
-    <t>Provider of Healthcare services</t>
-  </si>
-  <si>
     <t>123 Baker Street, London, NW1 1ZX</t>
   </si>
   <si>
@@ -1080,12 +1063,105 @@
   </si>
   <si>
     <t>ROI</t>
+  </si>
+  <si>
+    <t>Prepared by</t>
+  </si>
+  <si>
+    <t>01/02/2019</t>
+  </si>
+  <si>
+    <t>Key stakeholders</t>
+  </si>
+  <si>
+    <t>Critical adopters</t>
+  </si>
+  <si>
+    <t>CEO, IT Manager</t>
+  </si>
+  <si>
+    <t>HR, Finance, IT staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email </t>
+  </si>
+  <si>
+    <t>0121 443 2549</t>
+  </si>
+  <si>
+    <t>John.Smith@consultant.com</t>
+  </si>
+  <si>
+    <t>Profitability</t>
+  </si>
+  <si>
+    <t>Operating expenses</t>
+  </si>
+  <si>
+    <t>Financial position</t>
+  </si>
+  <si>
+    <t>£20 million</t>
+  </si>
+  <si>
+    <t>£3.5 million</t>
+  </si>
+  <si>
+    <t>Industry type</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Competitor landscape</t>
+  </si>
+  <si>
+    <t>Fierce</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Mature</t>
+  </si>
+  <si>
+    <t>ITO</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Stakeholder motivations</t>
+  </si>
+  <si>
+    <t>Cost reduction</t>
+  </si>
+  <si>
+    <t>Growth plans</t>
+  </si>
+  <si>
+    <t>Organic</t>
+  </si>
+  <si>
+    <t>Development capability</t>
+  </si>
+  <si>
+    <t>Organisational structure</t>
+  </si>
+  <si>
+    <t>Decentralised</t>
+  </si>
+  <si>
+    <t>M&amp;As</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
@@ -1334,7 +1410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1447,6 +1523,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1474,6 +1554,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1494,146 +1593,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2571749" y="771526"/>
-          <a:ext cx="8067676" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>This evaluation framework focuses on key criteria to help a company assess the suitability of tactical infrastructure and applications for migration to the cloud, providing objective advice on implementation strategies which best meet business and technical requirements. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="695325"/>
-          <a:ext cx="2114550" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1649,13 +1608,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1693,13 +1658,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1737,13 +1708,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1773,424 +1750,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3286126" y="323850"/>
-          <a:ext cx="2009774" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Fixed Telephony</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3286124" y="4010025"/>
-          <a:ext cx="2124075" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Mobile Telephony</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>286695</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>50346</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2115495" cy="621846"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2114550" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="685799"/>
-          <a:ext cx="1657350" cy="2076451"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Qualitative measure of IT security in relation to specified infrastructure elements.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Scores are assigned based on:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1 - Poor/Non-existent</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>through to</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>4 - Comprehensive and embedded</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2114550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2114550" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -2204,7 +1763,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2354,61 +1919,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1504950</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2114550" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2422,13 +1932,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2473,81 +1989,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2114550" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1019175</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1019175</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2575,61 +2042,6 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2114550" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2645,7 +2057,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2793,61 +2211,6 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2114550" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2863,7 +2226,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2906,7 +2275,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Qualitative measure of obstacles preceived as barriers to Cloud adoption.</a:t>
+            <a:t>Qualitative measure of obstacles perceived as barriers to IT initiatives:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3011,121 +2380,6 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2114550" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2114550" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3141,7 +2395,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3200,7 +2460,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3259,7 +2525,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3306,63 +2578,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2114550" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3378,7 +2595,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3524,61 +2747,289 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2114550" cy="619125"/>
+          <a:off x="3286126" y="323850"/>
+          <a:ext cx="2009774" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+            </a:rPr>
+            <a:t>Fixed Telephony</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3286124" y="4010025"/>
+          <a:ext cx="2124075" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Mobile Telephony</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="685799"/>
+          <a:ext cx="1657350" cy="2076451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Qualitative measure of IT security in relation to specified infrastructure elements.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Scores are assigned based on:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1 - Poor/Non-existent</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>through to</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4 - Comprehensive and embedded</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3846,80 +3297,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="Dashboard!A1" display="Dashboard"/>
-    <hyperlink ref="E2" location="'Strategic Obstacles'!A1" display="Strategic Obstacles"/>
-    <hyperlink ref="F2" location="Networking!A1" display="Networking"/>
-    <hyperlink ref="G2" location="Compute!A1" display="Compute"/>
-    <hyperlink ref="H2" location="Availability!A1" display="Availability"/>
-    <hyperlink ref="I2" location="Welcome!A1" display="Core Apps"/>
-    <hyperlink ref="J2" location="Voice!A1" display="Voice"/>
-    <hyperlink ref="C2" location="'Business Overview'!A1" display="Business Overview"/>
-    <hyperlink ref="D2" location="'IT Strategic Drivers'!A1" display="IT Strategic Drivers"/>
-    <hyperlink ref="K2" location="Security!A1" display="Security"/>
-    <hyperlink ref="L2" location="'IT Service'!A1" display="IT Service"/>
+    <hyperlink ref="B2" location="Dashboard!A1" display="Dashboard" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" location="'Strategic Obstacles'!A1" display="Strategic Obstacles" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F2" location="Networking!A1" display="Networking" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G2" location="Compute!A1" display="Compute" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H2" location="Availability!A1" display="Availability" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I2" location="Welcome!A1" display="Core Apps" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J2" location="Voice!A1" display="Voice" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C2" location="'Business Overview'!A1" display="Business Overview" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D2" location="'IT Strategic Drivers'!A1" display="IT Strategic Drivers" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K2" location="Security!A1" display="Security" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L2" location="'IT Service'!A1" display="IT Service" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3928,201 +3377,199 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="E1:O43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:15" x14ac:dyDescent="0.3">
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="5:15" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-    </row>
-    <row r="6" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+    </row>
+    <row r="6" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E6" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-    </row>
-    <row r="7" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+    </row>
+    <row r="7" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-    </row>
-    <row r="8" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+    </row>
+    <row r="8" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E8" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+    </row>
+    <row r="9" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E9" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F9" s="6">
         <v>3300</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-    </row>
-    <row r="10" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+    </row>
+    <row r="10" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
-    </row>
-    <row r="11" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E12" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-    </row>
-    <row r="15" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+    </row>
+    <row r="15" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-    </row>
-    <row r="16" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+    </row>
+    <row r="16" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E16" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-    </row>
-    <row r="17" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+    </row>
+    <row r="17" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-    </row>
-    <row r="18" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+    </row>
+    <row r="18" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F18" s="6">
         <v>30</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
-    </row>
-    <row r="19" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+    </row>
+    <row r="19" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F19" s="25">
         <v>1000</v>
@@ -4132,252 +3579,242 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
-    </row>
-    <row r="21" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
+    </row>
+    <row r="21" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E21" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-    </row>
-    <row r="24" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+    </row>
+    <row r="24" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E24" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E25" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="45"/>
-    </row>
-    <row r="26" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
+    </row>
+    <row r="26" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E26" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-    </row>
-    <row r="31" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G31" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-    </row>
-    <row r="32" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+    </row>
+    <row r="31" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+    </row>
+    <row r="32" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+    </row>
+    <row r="33" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+    </row>
+    <row r="34" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+    </row>
+    <row r="35" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="47"/>
+    </row>
+    <row r="36" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-    </row>
-    <row r="33" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-    </row>
-    <row r="34" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>331</v>
-      </c>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-    </row>
-    <row r="35" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="G35" s="43"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="45"/>
-    </row>
-    <row r="36" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="F36" s="24">
         <v>500</v>
       </c>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-    </row>
-    <row r="37" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+    </row>
+    <row r="37" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E37" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-    </row>
-    <row r="38" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+    </row>
+    <row r="38" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E38" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="45"/>
-    </row>
-    <row r="39" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="G38" s="45"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="47"/>
+    </row>
+    <row r="39" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E39" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E40" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E41" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E42" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-    </row>
-    <row r="43" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+    </row>
+    <row r="43" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E43" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G18:J18"/>
@@ -4394,45 +3831,55 @@
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
   </mergeCells>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41:F42 F11 F20:F25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41:F42 F11 F20:F25" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>YN</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>datatariff</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33" xr:uid="{00000000-0002-0000-0900-000002000000}">
       <formula1>mobile</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F34" xr:uid="{00000000-0002-0000-0900-000003000000}">
       <formula1>servers</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16" xr:uid="{00000000-0002-0000-0900-000004000000}">
       <formula1>isdn</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F15" xr:uid="{00000000-0002-0000-0900-000005000000}">
       <formula1>voip</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8" xr:uid="{00000000-0002-0000-0900-000006000000}">
       <formula1>pbxs</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6" xr:uid="{00000000-0002-0000-0900-000007000000}">
       <formula1>remotesites</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38:F39 F10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38:F39 F10" xr:uid="{00000000-0002-0000-0900-000008000000}">
       <formula1>lengths</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13" xr:uid="{00000000-0002-0000-0900-000009000000}">
       <formula1>pbxarch</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12" xr:uid="{00000000-0002-0000-0900-00000A000000}">
       <formula1>Support</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="N1" location="Welcome!A1" display="Home"/>
-    <hyperlink ref="O1" location="Compute!A1" display="Next"/>
+    <hyperlink ref="N1" location="Welcome!A1" display="Home" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="O1" location="Compute!A1" display="Next" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4440,199 +3887,197 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="F1:Q17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="6:17" x14ac:dyDescent="0.3">
       <c r="P1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="6:17" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="6:17" x14ac:dyDescent="0.3">
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="4" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-    </row>
-    <row r="5" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+    </row>
+    <row r="5" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G5" s="6">
         <v>2</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-    </row>
-    <row r="6" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+    </row>
+    <row r="6" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F6" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G6" s="6">
         <v>2</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
-    </row>
-    <row r="7" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F7" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-    </row>
-    <row r="8" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+    </row>
+    <row r="8" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" s="6">
         <v>2</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
-    </row>
-    <row r="9" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="47"/>
+    </row>
+    <row r="9" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F9" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="45"/>
-    </row>
-    <row r="10" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="45"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+    </row>
+    <row r="10" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="6">
         <v>2</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="11" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+    </row>
+    <row r="11" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-    </row>
-    <row r="12" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+    </row>
+    <row r="12" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F12" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G12" s="6">
         <v>1</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-    </row>
-    <row r="13" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+    </row>
+    <row r="13" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G13" s="6">
         <v>1</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-    </row>
-    <row r="14" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+    </row>
+    <row r="14" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G14" s="6">
         <v>1</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-    </row>
-    <row r="15" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+    </row>
+    <row r="15" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F15" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G15" s="6">
         <v>1</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-    </row>
-    <row r="16" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+    </row>
+    <row r="16" spans="6:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F16" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
-    </row>
-    <row r="17" spans="6:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+    </row>
+    <row r="17" spans="6:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F17" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4652,16 +4097,16 @@
     <mergeCell ref="H15:K15"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G10 G11 G12:G15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G10 G11 G12:G15" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>NumberedLists</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>YN</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="P1" location="Welcome!A1" display="Home"/>
-    <hyperlink ref="Q1" location="Compute!A1" display="Next"/>
+    <hyperlink ref="P1" location="Welcome!A1" display="Home" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="Q1" location="Compute!A1" display="Next" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4669,212 +4114,223 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:N17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="C1:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="12" max="12" width="4.5546875" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:14" x14ac:dyDescent="0.3">
       <c r="N1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-    </row>
-    <row r="5" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+    </row>
+    <row r="5" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-    </row>
-    <row r="7" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D7" s="6">
+        <v>312</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
+    </row>
+    <row r="7" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
-    </row>
-    <row r="8" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
-    </row>
-    <row r="9" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
+    </row>
+    <row r="9" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-    </row>
-    <row r="10" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
-        <v>12</v>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47"/>
+    </row>
+    <row r="10" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-    </row>
-    <row r="11" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="7" t="s">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
-    </row>
-    <row r="12" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-    </row>
-    <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+    </row>
+    <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-    </row>
-    <row r="14" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
-    </row>
-    <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-    </row>
-    <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
+    </row>
+    <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-    </row>
-    <row r="17" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+        <v>234</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E14:H14"/>
+  <mergeCells count="15">
     <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E15:H15"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E14:H14"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E17:H17"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D7:D16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D17 D5:D6" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>NumberedLists</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="N1" location="Welcome!A1" display="Home"/>
+    <hyperlink ref="N1" location="Welcome!A1" display="Home" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4882,23 +4338,23 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -4906,19 +4362,19 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" t="s">
-        <v>113</v>
-      </c>
       <c r="J1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4926,28 +4382,28 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" t="s">
         <v>111</v>
       </c>
-      <c r="I2" t="s">
-        <v>114</v>
-      </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4955,28 +4411,28 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4984,492 +4440,492 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="N9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="G10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" t="s">
+        <v>152</v>
+      </c>
+      <c r="M11" t="s">
+        <v>148</v>
+      </c>
+      <c r="N11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" t="s">
+        <v>153</v>
+      </c>
+      <c r="M12" t="s">
+        <v>171</v>
+      </c>
+      <c r="N12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" t="s">
+        <v>172</v>
+      </c>
+      <c r="N13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="N15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
         <v>130</v>
       </c>
-      <c r="I10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10" t="s">
-        <v>145</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="J16" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" t="s">
+        <v>200</v>
+      </c>
+      <c r="N17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" t="s">
+        <v>201</v>
+      </c>
+      <c r="N18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" t="s">
+        <v>202</v>
+      </c>
+      <c r="N19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" t="s">
+        <v>158</v>
+      </c>
+      <c r="M20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" t="s">
         <v>124</v>
       </c>
-      <c r="N10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" t="s">
-        <v>155</v>
-      </c>
-      <c r="M11" t="s">
-        <v>151</v>
-      </c>
-      <c r="N11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" t="s">
-        <v>156</v>
-      </c>
-      <c r="M12" t="s">
-        <v>174</v>
-      </c>
-      <c r="N12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="J21" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L21" t="s">
+        <v>159</v>
+      </c>
+      <c r="N21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="N22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" t="s">
+        <v>253</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="N23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" t="s">
+        <v>249</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" t="s">
         <v>157</v>
       </c>
-      <c r="M13" t="s">
-        <v>175</v>
-      </c>
-      <c r="N13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" t="s">
-        <v>120</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" t="s">
-        <v>158</v>
-      </c>
-      <c r="M14" t="s">
-        <v>65</v>
-      </c>
-      <c r="N14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" t="s">
-        <v>132</v>
-      </c>
-      <c r="I15" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="L15" t="s">
-        <v>159</v>
-      </c>
-      <c r="N15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" t="s">
+        <v>250</v>
+      </c>
+      <c r="L25" t="s">
+        <v>160</v>
+      </c>
+      <c r="M25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>258</v>
+      </c>
+      <c r="L26" t="s">
+        <v>161</v>
+      </c>
+      <c r="M26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I27" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>254</v>
+      </c>
+      <c r="G28" t="s">
+        <v>256</v>
+      </c>
+      <c r="I28" t="s">
+        <v>257</v>
+      </c>
+      <c r="L28" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" t="s">
         <v>88</v>
-      </c>
-      <c r="E16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" t="s">
-        <v>133</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="L16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" t="s">
-        <v>134</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M17" t="s">
-        <v>203</v>
-      </c>
-      <c r="N17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="M18" t="s">
-        <v>204</v>
-      </c>
-      <c r="N18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" t="s">
-        <v>125</v>
-      </c>
-      <c r="M19" t="s">
-        <v>205</v>
-      </c>
-      <c r="N19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" t="s">
-        <v>137</v>
-      </c>
-      <c r="I20" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" t="s">
-        <v>161</v>
-      </c>
-      <c r="M20" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" t="s">
-        <v>127</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="L21" t="s">
-        <v>162</v>
-      </c>
-      <c r="N21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>242</v>
-      </c>
-      <c r="G22" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="N22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>243</v>
-      </c>
-      <c r="D23" t="s">
-        <v>256</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="N23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D24" t="s">
-        <v>252</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="L24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>245</v>
-      </c>
-      <c r="D25" t="s">
-        <v>253</v>
-      </c>
-      <c r="L25" t="s">
-        <v>163</v>
-      </c>
-      <c r="M25" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>254</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" t="s">
-        <v>261</v>
-      </c>
-      <c r="L26" t="s">
-        <v>164</v>
-      </c>
-      <c r="M26" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>255</v>
-      </c>
-      <c r="G27" t="s">
-        <v>258</v>
-      </c>
-      <c r="I27" t="s">
-        <v>262</v>
-      </c>
-      <c r="L27" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>257</v>
-      </c>
-      <c r="G28" t="s">
-        <v>259</v>
-      </c>
-      <c r="I28" t="s">
-        <v>260</v>
-      </c>
-      <c r="L28" t="s">
-        <v>65</v>
-      </c>
-      <c r="M28" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5479,266 +4935,264 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:R20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
-    <col min="13" max="14" width="7.7109375" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="39.5546875" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="24.44140625" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="13" max="14" width="7.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K3" s="26"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K4" s="26"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K5" s="26"/>
     </row>
-    <row r="6" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H6" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J6" s="27"/>
       <c r="K6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="29" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="29" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="H9" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="H9" s="29" t="s">
+      <c r="I9" s="32" t="s">
         <v>317</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>323</v>
       </c>
       <c r="J9" s="28"/>
       <c r="K9" s="30" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="30" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="29" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="4" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="29" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="30" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="29" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L13" s="32" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="30" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="Welcome!A1" display="Home"/>
-    <hyperlink ref="N1" location="'Business Overview'!A1" display="Next"/>
+    <hyperlink ref="M1" location="Welcome!A1" display="Home" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="N1" location="'Business Overview'!A1" display="Next" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5747,351 +5201,539 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:P18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="C1:Q29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" customWidth="1"/>
+    <col min="5" max="5" width="33.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
+    <row r="1" spans="3:17" x14ac:dyDescent="0.3">
       <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="3:17" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="3:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="3:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="3:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+    </row>
+    <row r="6" spans="3:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="3:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="3:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="3:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="52" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="6" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="3:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="51" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="7" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="3:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="3:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="3:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="3:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="3:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="H14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="I14" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="3:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="H15" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="8" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="3:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="H16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="H17" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="3:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="3:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="3:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="3:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="D22" s="51">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="3:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="3:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="3:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="51">
+        <v>100</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C27" s="7" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="10" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="D27" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C28" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" s="51">
+        <v>300</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C29" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="6">
-        <v>100</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="D17" s="6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="D29" s="51">
         <v>16</v>
       </c>
+      <c r="E29" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I1" location="Welcome!A1" display="Home"/>
-    <hyperlink ref="J1" location="'IT Strategic Drivers'!A1" display="Next"/>
-    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="J1" location="Welcome!A1" display="Home" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="K1" location="'IT Strategic Drivers'!A1" display="Next" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="I17" r:id="rId2" xr:uid="{5678578C-5808-4B11-9651-21820CF3967B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D1:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:11" x14ac:dyDescent="0.3">
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E4" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E7" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E9" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+    </row>
+    <row r="10" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+    </row>
+    <row r="13" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E15" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" spans="4:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="4:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="4:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E7 E8 E9 E11 E12 E14 E15:E16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E7:E9 E11:E12 E14:E16" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>NumberedLists</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J1" location="Welcome!A1" display="Home"/>
-    <hyperlink ref="K1" location="'Strategic Obstacles'!A1" display="Next"/>
+    <hyperlink ref="J1" location="Welcome!A1" display="Home" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="K1" location="'Strategic Obstacles'!A1" display="Next" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6100,168 +5742,167 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C1:L15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E21"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:12" x14ac:dyDescent="0.3">
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-    </row>
-    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-    </row>
-    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-    </row>
-    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-    </row>
-    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-    </row>
-    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-    </row>
-    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-    </row>
-    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="J11" s="41"/>
+    </row>
+    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-    </row>
-    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="6">
         <v>4</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-    </row>
-    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D14" s="6">
         <v>4</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-    </row>
-    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6279,13 +5920,13 @@
     <mergeCell ref="E14:H14"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D8 D10:D12 D14 D5 D13 D9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D8 D10:D12 D14 D5 D13 D9" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>NumberedLists</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K1" location="Welcome!A1" display="Home"/>
-    <hyperlink ref="L1" location="Networking!A1" display="Next"/>
+    <hyperlink ref="K1" location="Welcome!A1" display="Home" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="L1" location="Networking!A1" display="Next" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6293,216 +5934,214 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:12" x14ac:dyDescent="0.3">
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="4:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="4:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+    </row>
+    <row r="4" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-    </row>
-    <row r="5" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+    </row>
+    <row r="5" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-    </row>
-    <row r="6" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-    </row>
-    <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-    </row>
-    <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-    </row>
-    <row r="9" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-    </row>
-    <row r="10" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-    </row>
-    <row r="11" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-    </row>
-    <row r="12" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="7" t="s">
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-    </row>
-    <row r="13" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-    </row>
-    <row r="14" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-    </row>
-    <row r="15" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="7" t="s">
+      <c r="E16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+    </row>
+    <row r="17" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-    </row>
-    <row r="16" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="E17" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-    </row>
-    <row r="18" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+    </row>
+    <row r="18" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -6524,630 +6163,652 @@
     <mergeCell ref="F9:I9"/>
   </mergeCells>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>DClist</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>wantype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>remotesites</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E8" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>bandwidth</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11" xr:uid="{00000000-0002-0000-0500-000004000000}">
       <formula1>voip</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12" xr:uid="{00000000-0002-0000-0500-000005000000}">
       <formula1>YN</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14" xr:uid="{00000000-0002-0000-0500-000006000000}">
       <formula1>resilient</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15 E17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15 E17" xr:uid="{00000000-0002-0000-0500-000007000000}">
       <formula1>scalability</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16" xr:uid="{00000000-0002-0000-0500-000008000000}">
       <formula1>remote</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K1" location="Welcome!A1" display="Home"/>
-    <hyperlink ref="L1" location="Compute!A1" display="Next"/>
+    <hyperlink ref="K1" location="Welcome!A1" display="Home" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="L1" location="Compute!A1" display="Next" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D1:N59"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:14" x14ac:dyDescent="0.3">
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-    </row>
-    <row r="5" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+    </row>
+    <row r="5" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="20" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+    </row>
+    <row r="21" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-    </row>
-    <row r="6" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="E21" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+    </row>
+    <row r="22" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+    </row>
+    <row r="23" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+    </row>
+    <row r="24" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+    </row>
+    <row r="25" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+    </row>
+    <row r="26" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+    </row>
+    <row r="27" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+    </row>
+    <row r="28" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+    </row>
+    <row r="29" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-    </row>
-    <row r="7" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-    </row>
-    <row r="8" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-    </row>
-    <row r="9" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-    </row>
-    <row r="10" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-    </row>
-    <row r="11" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-    </row>
-    <row r="12" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-    </row>
-    <row r="13" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-    </row>
-    <row r="14" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-    </row>
-    <row r="15" spans="4:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-    </row>
-    <row r="20" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-    </row>
-    <row r="21" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-    </row>
-    <row r="22" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-    </row>
-    <row r="23" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-    </row>
-    <row r="24" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-    </row>
-    <row r="25" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-    </row>
-    <row r="26" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-    </row>
-    <row r="27" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-    </row>
-    <row r="28" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-    </row>
-    <row r="29" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="E29" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-    </row>
-    <row r="30" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+    </row>
+    <row r="30" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
-    </row>
-    <row r="31" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="47"/>
+    </row>
+    <row r="31" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+    </row>
+    <row r="35" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+    </row>
+    <row r="40" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="50"/>
+    </row>
+    <row r="41" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-    </row>
-    <row r="35" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-    </row>
-    <row r="40" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="48"/>
-    </row>
-    <row r="41" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="E41" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="45"/>
-    </row>
-    <row r="42" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="F41" s="45"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="47"/>
+    </row>
+    <row r="42" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="45"/>
-    </row>
-    <row r="44" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="47"/>
+    </row>
+    <row r="44" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="F44" s="43"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="45"/>
-    </row>
-    <row r="45" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="F44" s="45"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="47"/>
+    </row>
+    <row r="45" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F45" s="43"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="45"/>
-    </row>
-    <row r="46" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="F45" s="45"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="47"/>
+    </row>
+    <row r="46" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="45"/>
-    </row>
-    <row r="47" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="47"/>
+    </row>
+    <row r="47" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" s="43"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="45"/>
-    </row>
-    <row r="48" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F47" s="45"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="47"/>
+    </row>
+    <row r="48" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="45"/>
-    </row>
-    <row r="51" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="F50" s="45"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="47"/>
+    </row>
+    <row r="51" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="43"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="45"/>
-    </row>
-    <row r="54" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="F53" s="45"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="47"/>
+    </row>
+    <row r="54" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F54" s="43"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="45"/>
-    </row>
-    <row r="55" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="F54" s="45"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="47"/>
+    </row>
+    <row r="55" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="12"/>
     </row>
-    <row r="56" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D56" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="12"/>
     </row>
-    <row r="57" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-    </row>
-    <row r="59" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+    </row>
+    <row r="59" spans="4:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D59" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E59" s="6"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
@@ -7160,97 +6821,69 @@
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="F58:I58"/>
   </mergeCells>
-  <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54">
+  <dataValidations count="19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54 E10 E30" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>Age</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>Client</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>Virtual</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E29 E53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7 E29 E53" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>Asset</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{00000000-0002-0000-0600-000004000000}">
       <formula1>Makes</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E30">
-      <formula1>Age</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11 E31 E55 E47:E49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11 E31 E55 E47:E49" xr:uid="{00000000-0002-0000-0600-000006000000}">
       <formula1>YN</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12 E32 E56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12 E32 E56" xr:uid="{00000000-0002-0000-0600-000007000000}">
       <formula1>Managed</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13 E33 E57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13 E33 E57" xr:uid="{00000000-0002-0000-0600-000008000000}">
       <formula1>Support</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E34 E58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E34 E58" xr:uid="{00000000-0002-0000-0600-000009000000}">
       <formula1>Performance</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24" xr:uid="{00000000-0002-0000-0600-00000A000000}">
       <formula1>servers</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21" xr:uid="{00000000-0002-0000-0600-00000B000000}">
       <formula1>physical</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22" xr:uid="{00000000-0002-0000-0600-00000C000000}">
       <formula1>server_make</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25" xr:uid="{00000000-0002-0000-0600-00000D000000}">
       <formula1>hypervisor</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26" xr:uid="{00000000-0002-0000-0600-00000E000000}">
       <formula1>serveros</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27 E42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27 E42" xr:uid="{00000000-0002-0000-0600-00000F000000}">
       <formula1>arch</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28" xr:uid="{00000000-0002-0000-0600-000010000000}">
       <formula1>env</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41" xr:uid="{00000000-0002-0000-0600-000011000000}">
       <formula1>storage</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43" xr:uid="{00000000-0002-0000-0600-000012000000}">
       <formula1>sans</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E50:E52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E50:E52" xr:uid="{00000000-0002-0000-0600-000013000000}">
       <formula1>scalability</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M1" location="Welcome!A1" display="Home"/>
-    <hyperlink ref="N1" location="Compute!A1" display="Next"/>
+    <hyperlink ref="M1" location="Welcome!A1" display="Home" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="N1" location="Compute!A1" display="Next" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7258,77 +6891,75 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="E1:O16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:15" x14ac:dyDescent="0.3">
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-    </row>
-    <row r="5" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-    </row>
-    <row r="6" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+    </row>
+    <row r="6" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E6" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F6" s="6">
         <v>3</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-    </row>
-    <row r="7" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+    </row>
+    <row r="7" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-    </row>
-    <row r="8" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
+    </row>
+    <row r="8" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F8" s="6">
         <v>2</v>
@@ -7338,99 +6969,99 @@
       <c r="I8" s="14"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E9" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+    </row>
+    <row r="10" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-    </row>
-    <row r="10" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="6">
-        <v>3</v>
-      </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-    </row>
-    <row r="11" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+    </row>
+    <row r="11" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F11" s="6">
         <v>2</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
-    </row>
-    <row r="12" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E12" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F12" s="6">
         <v>1</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+    </row>
+    <row r="13" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="6">
         <v>1</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="6">
         <v>1</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-    </row>
-    <row r="15" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+    </row>
+    <row r="15" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E15" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F15" s="6">
         <v>1</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-    </row>
-    <row r="16" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+    </row>
+    <row r="16" spans="5:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E16" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7448,13 +7079,13 @@
     <mergeCell ref="G15:J15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F15" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>NumberedLists</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="N1" location="Welcome!A1" display="Home"/>
-    <hyperlink ref="O1" location="Compute!A1" display="Next"/>
+    <hyperlink ref="N1" location="Welcome!A1" display="Home" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="O1" location="Compute!A1" display="Next" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7462,223 +7093,235 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:P20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="E1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:16" x14ac:dyDescent="0.3">
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-    </row>
-    <row r="5" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+    </row>
+    <row r="6" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+    </row>
+    <row r="7" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
+    </row>
+    <row r="8" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+    </row>
+    <row r="9" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+    </row>
+    <row r="10" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+    </row>
+    <row r="12" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
+    </row>
+    <row r="13" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+    </row>
+    <row r="15" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-    </row>
-    <row r="6" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-    </row>
-    <row r="7" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-    </row>
-    <row r="8" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-    </row>
-    <row r="10" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
-    </row>
-    <row r="11" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-    </row>
-    <row r="12" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
-    </row>
-    <row r="13" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-    </row>
-    <row r="15" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-    </row>
-    <row r="16" spans="5:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
-    </row>
-    <row r="17" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="17"/>
+        <v>290</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+    </row>
+    <row r="17" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="F17" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
+    </row>
+    <row r="18" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="17"/>
       <c r="F18" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="17"/>
       <c r="F19" s="6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
+    <row r="20" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="17"/>
+      <c r="F20" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="G20:J20"/>
+  <mergeCells count="15">
+    <mergeCell ref="G21:J21"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G6:J6"/>
@@ -7688,36 +7331,36 @@
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G16:J16"/>
     <mergeCell ref="G15:J15"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>clientos</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 F12 F14 F10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7 F12 F10 F14:F15" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>YN</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>serveros</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>_xlnm.database</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F9" xr:uid="{00000000-0002-0000-0800-000004000000}">
       <formula1>licence</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11" xr:uid="{00000000-0002-0000-0800-000005000000}">
       <formula1>email</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="O1" location="Welcome!A1" display="Home"/>
-    <hyperlink ref="P1" location="Compute!A1" display="Next"/>
+    <hyperlink ref="O1" location="Welcome!A1" display="Home" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="P1" location="Compute!A1" display="Next" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>